--- a/Resume_Dashboard/1_Data_Collect/resume_data.xlsx
+++ b/Resume_Dashboard/1_Data_Collect/resume_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#Git\Data-Analysis-Portfolio\Resume_Dashboard\1_Data_Collect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\02_Portfolio_Projects\Data-Analysis-Portfolio\Resume_Dashboard\1_Data_Collect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CB9B30-1B90-41A1-8332-214150972491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161C914B-F8F9-4F65-9543-2841A8EEE131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17388" yWindow="-108" windowWidth="17496" windowHeight="30216" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="languages" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -62,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="239">
   <si>
     <t>Date</t>
   </si>
@@ -787,8 +796,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="mmm\,\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/yyyy"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -933,7 +942,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1033,7 +1042,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="mmm\,\ yyyy"/>
+      <numFmt numFmtId="164" formatCode="mmm\,\ yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1047,7 +1056,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="mmm\,\ yyyy"/>
+      <numFmt numFmtId="164" formatCode="mmm\,\ yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1189,155 +1198,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="mmm\,\ yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="mmm\,\ yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="mmm\,\ yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1348,19 +1208,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1399,6 +1246,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="mmm\,\ yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="mmm\,\ yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="mmm\,\ yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1514,15 +1390,44 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1539,12 +1444,116 @@
         <b val="0"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1668,29 +1677,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BFC79F36-6F3E-44C1-B744-1FA4693B3A9E}" name="Skills_Migrated_Data7" displayName="Skills_Migrated_Data7" ref="A1:D5" tableType="queryTable" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BFC79F36-6F3E-44C1-B744-1FA4693B3A9E}" name="Skills_Migrated_Data7" displayName="Skills_Migrated_Data7" ref="A1:D5" tableType="queryTable" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:D5" xr:uid="{4742D84E-D73A-46BF-9B4F-70C4545DC31D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4BCB91DA-CF09-4565-918C-CB01F5F0ACE3}" uniqueName="1" name="language" queryTableFieldId="1" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{315FC52F-D76C-44E1-A332-107D745ACF00}" uniqueName="4" name="type" queryTableFieldId="4" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{A7F07477-1F0A-4538-8FF0-51289D2DB829}" uniqueName="3" name="value" queryTableFieldId="3" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{48C272E2-D35D-4E2B-8408-61D0D4419770}" uniqueName="5" name="id" queryTableFieldId="6" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{4BCB91DA-CF09-4565-918C-CB01F5F0ACE3}" uniqueName="1" name="language" queryTableFieldId="1" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{315FC52F-D76C-44E1-A332-107D745ACF00}" uniqueName="4" name="type" queryTableFieldId="4" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{A7F07477-1F0A-4538-8FF0-51289D2DB829}" uniqueName="3" name="value" queryTableFieldId="3" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{48C272E2-D35D-4E2B-8408-61D0D4419770}" uniqueName="5" name="id" queryTableFieldId="6" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BBC3006A-6A5A-4132-879B-6F5249303BB0}" name="Skills_Migrated_Data" displayName="Skills_Migrated_Data" ref="A1:D34" tableType="queryTable" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BBC3006A-6A5A-4132-879B-6F5249303BB0}" name="Skills_Migrated_Data" displayName="Skills_Migrated_Data" ref="A1:D34" tableType="queryTable" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:D34" xr:uid="{4742D84E-D73A-46BF-9B4F-70C4545DC31D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
     <sortCondition ref="C1:C34"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A5D713D6-F740-467A-BB9F-818B1A00C896}" uniqueName="1" name="skills" queryTableFieldId="1" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{BB417A5E-C43B-4B2C-B886-8B1EB3660BB3}" uniqueName="4" name="type" queryTableFieldId="4" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{3A4EFD15-66AF-4104-92DC-D11A9008BB13}" uniqueName="3" name="value" queryTableFieldId="3" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{E421F3B0-6DA0-4DB6-B8A8-05C6198A9C9C}" uniqueName="5" name="category" queryTableFieldId="6" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{A5D713D6-F740-467A-BB9F-818B1A00C896}" uniqueName="1" name="skills" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{BB417A5E-C43B-4B2C-B886-8B1EB3660BB3}" uniqueName="4" name="type" queryTableFieldId="4" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{3A4EFD15-66AF-4104-92DC-D11A9008BB13}" uniqueName="3" name="value" queryTableFieldId="3" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{E421F3B0-6DA0-4DB6-B8A8-05C6198A9C9C}" uniqueName="5" name="category" queryTableFieldId="6" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1704,40 +1713,40 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="3" xr3:uid="{6098A5E3-77B2-4921-8E19-AD25414F4A15}" uniqueName="3" name="ID" queryTableFieldId="3"/>
-    <tableColumn id="1" xr3:uid="{747295B3-38C5-4413-BE65-ADFEE2EF6304}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{747295B3-38C5-4413-BE65-ADFEE2EF6304}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="36"/>
     <tableColumn id="9" xr3:uid="{EAD8CB03-C4DB-4141-86DA-E379AF04AEC2}" uniqueName="9" name="Provider" queryTableFieldId="9"/>
-    <tableColumn id="4" xr3:uid="{248EDD3C-F7E3-4A6B-86CA-E6E7F2D851BC}" uniqueName="4" name="Item" queryTableFieldId="4" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{0E058EA8-66B0-4DD0-AC14-D1DEFEDD294C}" uniqueName="5" name="Type" queryTableFieldId="5" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{B464E10B-BED5-4B76-8403-DC801F60A351}" uniqueName="10" name="Taken" queryTableFieldId="13" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{248EDD3C-F7E3-4A6B-86CA-E6E7F2D851BC}" uniqueName="4" name="Item" queryTableFieldId="4" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{0E058EA8-66B0-4DD0-AC14-D1DEFEDD294C}" uniqueName="5" name="Type" queryTableFieldId="5" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{B464E10B-BED5-4B76-8403-DC801F60A351}" uniqueName="10" name="Taken" queryTableFieldId="13" dataDxfId="33"/>
     <tableColumn id="7" xr3:uid="{EE0060F8-EA13-4949-BB76-DDC79E035436}" uniqueName="7" name="Value" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{12D5EFC3-7F83-4986-BEAF-48B8E24A6853}" uniqueName="8" name="URL" queryTableFieldId="8"/>
-    <tableColumn id="2" xr3:uid="{A4437D8B-D121-4054-836D-B7FF7D20876F}" uniqueName="2" name="Description" queryTableFieldId="2" dataDxfId="23" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{A4437D8B-D121-4054-836D-B7FF7D20876F}" uniqueName="2" name="Description" queryTableFieldId="2" dataDxfId="32" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F3A1877D-09A0-4DF9-8121-E72329BD35A9}" name="Experience_Migrated_Data" displayName="Experience_Migrated_Data" ref="A1:N20" tableType="queryTable" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F3A1877D-09A0-4DF9-8121-E72329BD35A9}" name="Experience_Migrated_Data" displayName="Experience_Migrated_Data" ref="A1:N20" tableType="queryTable" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:N20" xr:uid="{A4BFF2C4-0CF8-4412-A153-6045CEC73DA2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
     <sortCondition ref="I1:I20"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="6" xr3:uid="{0A497575-F833-4D17-B340-A06F57B8DAAB}" uniqueName="6" name="ID" queryTableFieldId="6" dataDxfId="41"/>
-    <tableColumn id="1" xr3:uid="{1775B1C7-CC06-4BA9-94D7-2AEC2F50B88F}" uniqueName="1" name="Category" queryTableFieldId="1" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{FC0AC23D-98DC-4106-AA71-7ABD7D64C251}" uniqueName="10" name="Title" queryTableFieldId="10" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{F22F1A37-08BE-49E5-98DD-56AC9B8D7248}" uniqueName="14" name="Type" queryTableFieldId="18" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{51DC6C18-2457-42A0-BA34-1E80CBDAF9EC}" uniqueName="9" name="Country" queryTableFieldId="9" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{D3ADCF06-1C91-4D95-BFD7-CB950AC3B9C6}" uniqueName="2" name="City" queryTableFieldId="2" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{99FE961E-774D-4B60-935F-903606AEA097}" uniqueName="3" name="Organisation" queryTableFieldId="3" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{933EBC96-265B-4BE2-8AB3-E0234DA36DC4}" uniqueName="4" name="Details" queryTableFieldId="4" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{0A497575-F833-4D17-B340-A06F57B8DAAB}" uniqueName="6" name="ID" queryTableFieldId="6" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{1775B1C7-CC06-4BA9-94D7-2AEC2F50B88F}" uniqueName="1" name="Category" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{FC0AC23D-98DC-4106-AA71-7ABD7D64C251}" uniqueName="10" name="Title" queryTableFieldId="10" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{F22F1A37-08BE-49E5-98DD-56AC9B8D7248}" uniqueName="14" name="Type" queryTableFieldId="18" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{51DC6C18-2457-42A0-BA34-1E80CBDAF9EC}" uniqueName="9" name="Country" queryTableFieldId="9" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{D3ADCF06-1C91-4D95-BFD7-CB950AC3B9C6}" uniqueName="2" name="City" queryTableFieldId="2" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{99FE961E-774D-4B60-935F-903606AEA097}" uniqueName="3" name="Organisation" queryTableFieldId="3" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{933EBC96-265B-4BE2-8AB3-E0234DA36DC4}" uniqueName="4" name="Details" queryTableFieldId="4" dataDxfId="22"/>
     <tableColumn id="8" xr3:uid="{058133AC-506F-4B1B-8A5E-F5BC7A7E6522}" uniqueName="8" name="Start Date" queryTableFieldId="8" dataDxfId="21"/>
     <tableColumn id="5" xr3:uid="{95D6323F-ADE1-4944-A3CC-93718BBBE379}" uniqueName="5" name="End Date" queryTableFieldId="5" dataDxfId="20"/>
     <tableColumn id="7" xr3:uid="{89D99239-7F5B-423E-87B4-7D1BBD2D395B}" uniqueName="7" name="Midpoint" queryTableFieldId="7" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{5439385D-CEBE-44E2-B546-F53D11E8CFAE}" uniqueName="11" name="Duration" queryTableFieldId="11" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{56D33610-BDB4-466F-A265-061910976923}" uniqueName="15" name="Short" queryTableFieldId="20" dataDxfId="32"/>
-    <tableColumn id="16" xr3:uid="{56FB67A5-096A-40F1-9024-E91A1916F903}" uniqueName="16" name="Project" queryTableFieldId="21" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{5439385D-CEBE-44E2-B546-F53D11E8CFAE}" uniqueName="11" name="Duration" queryTableFieldId="11" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{56D33610-BDB4-466F-A265-061910976923}" uniqueName="15" name="Short" queryTableFieldId="20" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{56FB67A5-096A-40F1-9024-E91A1916F903}" uniqueName="16" name="Project" queryTableFieldId="21" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2038,12 +2047,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2126,19 +2135,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF19340-A99D-4DDF-A0CA-C2924B605636}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="15.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2393,7 +2402,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -2421,7 +2430,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="30">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -2589,7 +2598,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
@@ -2603,7 +2612,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
@@ -2615,6 +2624,11 @@
       </c>
       <c r="D34" s="2" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="E46" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2689,23 +2703,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9E022B-A639-4269-BE77-EABC7162D203}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="82.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3705,28 +3719,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE814A8-0272-4176-B543-02CECF6DD008}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="16" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3773,7 +3787,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="34.799999999999997" customHeight="1">
+    <row r="2" spans="1:14" ht="34.9" customHeight="1">
       <c r="A2" s="7">
         <v>21</v>
       </c>
@@ -3808,7 +3822,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="86.4">
+    <row r="3" spans="1:14" ht="120">
       <c r="A3" s="7">
         <v>13</v>
       </c>
@@ -3851,7 +3865,7 @@
       </c>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="86.4">
+    <row r="4" spans="1:14" ht="105">
       <c r="A4" s="7">
         <v>14</v>
       </c>
@@ -3894,7 +3908,7 @@
       </c>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" ht="100.8">
+    <row r="5" spans="1:14" ht="120">
       <c r="A5" s="7">
         <v>12</v>
       </c>
@@ -3937,7 +3951,7 @@
       </c>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="100.8">
+    <row r="6" spans="1:14" ht="120">
       <c r="A6" s="7">
         <v>11</v>
       </c>
@@ -3980,7 +3994,7 @@
       </c>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="100.8">
+    <row r="7" spans="1:14" ht="120">
       <c r="A7" s="7">
         <v>10</v>
       </c>
@@ -4023,7 +4037,7 @@
       </c>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="100.8">
+    <row r="8" spans="1:14" ht="120">
       <c r="A8" s="7">
         <v>9</v>
       </c>
@@ -4066,7 +4080,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="100.8">
+    <row r="9" spans="1:14" ht="120">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4109,7 +4123,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="100.8">
+    <row r="10" spans="1:14" ht="120">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -4152,7 +4166,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="129.6">
+    <row r="11" spans="1:14" ht="150">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -4195,7 +4209,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="115.2">
+    <row r="12" spans="1:14" ht="135">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -4238,7 +4252,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="115.2">
+    <row r="13" spans="1:14" ht="150">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -4281,7 +4295,7 @@
       </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="144">
+    <row r="14" spans="1:14" ht="165">
       <c r="A14" s="7">
         <v>2</v>
       </c>
@@ -4324,7 +4338,7 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="115.2">
+    <row r="15" spans="1:14" ht="150">
       <c r="A15" s="7">
         <v>3</v>
       </c>
@@ -4367,7 +4381,7 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="43.2">
+    <row r="16" spans="1:14" ht="45">
       <c r="A16" s="7">
         <v>17</v>
       </c>
@@ -4402,7 +4416,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="172.8">
+    <row r="17" spans="1:14" ht="210">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -4441,7 +4455,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="43.8" thickBot="1">
+    <row r="18" spans="1:14" ht="45.75" thickBot="1">
       <c r="A18" s="7">
         <v>20</v>
       </c>
@@ -4476,7 +4490,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="173.4" thickBot="1">
+    <row r="19" spans="1:14" ht="210.75" thickBot="1">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -4517,7 +4531,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="130.19999999999999" thickBot="1">
+    <row r="20" spans="1:14" ht="150.75" thickBot="1">
       <c r="A20" s="7">
         <v>1</v>
       </c>
@@ -4547,14 +4561,14 @@
       </c>
       <c r="J20" s="15">
         <f ca="1">TODAY()</f>
-        <v>44970</v>
+        <v>45482</v>
       </c>
       <c r="K20" s="15">
         <v>54789</v>
       </c>
       <c r="L20" s="7">
         <f ca="1">Experience_Migrated_Data[[#This Row],[End Date]]-Experience_Migrated_Data[[#This Row],[Start Date]]</f>
-        <v>1018</v>
+        <v>1530</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>61</v>
@@ -4608,26 +4622,26 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="15" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4674,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="43.2">
+    <row r="2" spans="1:14" ht="45">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4713,7 +4727,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="173.4" thickBot="1">
+    <row r="3" spans="1:14" ht="210.75" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4756,7 +4770,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="173.4" thickBot="1">
+    <row r="4" spans="1:14" ht="210.75" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4799,7 +4813,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="58.2" thickBot="1">
+    <row r="5" spans="1:14" ht="75.75" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4835,7 +4849,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="43.2">
+    <row r="6" spans="1:14" ht="60">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4865,7 +4879,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="43.2">
+    <row r="7" spans="1:14" ht="45">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4895,7 +4909,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="57.6">
+    <row r="8" spans="1:14" ht="60">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4925,7 +4939,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="86.4">
+    <row r="9" spans="1:14" ht="90">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4955,7 +4969,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="43.2">
+    <row r="10" spans="1:14" ht="45">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4985,7 +4999,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="43.2">
+    <row r="11" spans="1:14" ht="45">
       <c r="A11" s="7">
         <v>10</v>
       </c>
